--- a/src/test/resources/TestData/Test_Data.xlsx
+++ b/src/test/resources/TestData/Test_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KSANANTH\Desktop\nss-qa-ui-testing-serenity-BDD\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1419C47-06F3-48FB-B2F5-8BD3402C114F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932E2E71-462B-4716-8F4B-BAFA8AF09997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <t>ananthanarayanan.ks@centricanss.com.test</t>
   </si>
   <si>
-    <t>Centrica#1234</t>
+    <t>Centrica$1234</t>
   </si>
 </sst>
 </file>
@@ -374,7 +374,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
